--- a/parabolic/2025/08/22/parabolic.xlsx
+++ b/parabolic/2025/08/22/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="D2" t="n">
-        <v>1324200</v>
+        <v>3722300</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" t="n">
-        <v>304200</v>
+        <v>720900</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="D4" t="n">
-        <v>3048300</v>
+        <v>5574000</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D5" t="n">
-        <v>373700</v>
+        <v>447100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>7992</t>
+          <t>6779</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>133</v>
+        <v>915</v>
       </c>
       <c r="D6" t="n">
-        <v>180400</v>
+        <v>115700</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>8346</t>
+          <t>6958</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,16 +597,108 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="D7" t="n">
-        <v>154700</v>
+        <v>298100</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7238</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>112</v>
+      </c>
+      <c r="D8" t="n">
+        <v>695600</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>7992</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>128</v>
+      </c>
+      <c r="D9" t="n">
+        <v>352500</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>402</v>
+      </c>
+      <c r="D10" t="n">
+        <v>477800</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>8518</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>264</v>
+      </c>
+      <c r="D11" t="n">
+        <v>558200</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/22/parabolic.xlsx
+++ b/parabolic/2025/08/22/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D2" t="n">
-        <v>3722300</v>
+        <v>4861400</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3624</t>
+          <t>3536</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D3" t="n">
-        <v>720900</v>
+        <v>1125500</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3680</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>324</v>
+        <v>130</v>
       </c>
       <c r="D4" t="n">
-        <v>5574000</v>
+        <v>815800</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>6031</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>440</v>
+        <v>332</v>
       </c>
       <c r="D5" t="n">
-        <v>447100</v>
+        <v>7069500</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6779</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>915</v>
+        <v>529</v>
       </c>
       <c r="D6" t="n">
-        <v>115700</v>
+        <v>104000</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6958</t>
+          <t>4814</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>362</v>
+        <v>166</v>
       </c>
       <c r="D7" t="n">
-        <v>298100</v>
+        <v>414300</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7238</t>
+          <t>6031</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>112</v>
+        <v>440</v>
       </c>
       <c r="D8" t="n">
-        <v>695600</v>
+        <v>487500</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7992</t>
+          <t>6779</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>128</v>
+        <v>915</v>
       </c>
       <c r="D9" t="n">
-        <v>352500</v>
+        <v>150400</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>8346</t>
+          <t>6835</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>402</v>
+        <v>187</v>
       </c>
       <c r="D10" t="n">
-        <v>477800</v>
+        <v>1051200</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>8518</t>
+          <t>6958</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,16 +689,154 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>264</v>
+        <v>364</v>
       </c>
       <c r="D11" t="n">
-        <v>558200</v>
+        <v>409000</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>6962</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>600</v>
+      </c>
+      <c r="D12" t="n">
+        <v>102600</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>7238</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>113</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1088900</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>7992</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>128</v>
+      </c>
+      <c r="D14" t="n">
+        <v>379100</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>402</v>
+      </c>
+      <c r="D15" t="n">
+        <v>976900</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>8518</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>264</v>
+      </c>
+      <c r="D16" t="n">
+        <v>846700</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>9274</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>805</v>
+      </c>
+      <c r="D17" t="n">
+        <v>233500</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/22/parabolic.xlsx
+++ b/parabolic/2025/08/22/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D2" t="n">
-        <v>4861400</v>
+        <v>5682700</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D3" t="n">
-        <v>1125500</v>
+        <v>1809300</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" t="n">
-        <v>815800</v>
+        <v>988300</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D5" t="n">
-        <v>7069500</v>
+        <v>7745100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4317</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>529</v>
+        <v>202</v>
       </c>
       <c r="D6" t="n">
-        <v>104000</v>
+        <v>624900</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4814</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>166</v>
+        <v>537</v>
       </c>
       <c r="D7" t="n">
-        <v>414300</v>
+        <v>136000</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6031</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>440</v>
+        <v>534</v>
       </c>
       <c r="D8" t="n">
-        <v>487500</v>
+        <v>138400</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6779</t>
+          <t>4814</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>915</v>
+        <v>167</v>
       </c>
       <c r="D9" t="n">
-        <v>150400</v>
+        <v>507600</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6835</t>
+          <t>5017</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>187</v>
+        <v>342</v>
       </c>
       <c r="D10" t="n">
-        <v>1051200</v>
+        <v>947400</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>6958</t>
+          <t>6031</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>364</v>
+        <v>440</v>
       </c>
       <c r="D11" t="n">
-        <v>409000</v>
+        <v>536400</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6962</t>
+          <t>6069</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>600</v>
+        <v>904</v>
       </c>
       <c r="D12" t="n">
-        <v>102600</v>
+        <v>311900</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7238</t>
+          <t>6779</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>113</v>
+        <v>916</v>
       </c>
       <c r="D13" t="n">
-        <v>1088900</v>
+        <v>182500</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>7992</t>
+          <t>6835</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="D14" t="n">
-        <v>379100</v>
+        <v>1245600</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>8346</t>
+          <t>6958</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="D15" t="n">
-        <v>976900</v>
+        <v>565200</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>8518</t>
+          <t>6962</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>264</v>
+        <v>597</v>
       </c>
       <c r="D16" t="n">
-        <v>846700</v>
+        <v>138100</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>9274</t>
+          <t>7238</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,16 +827,131 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>805</v>
+        <v>114</v>
       </c>
       <c r="D17" t="n">
-        <v>233500</v>
+        <v>1277100</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>7992</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>127</v>
+      </c>
+      <c r="D18" t="n">
+        <v>409500</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>403</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1226300</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>8518</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>259</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1040700</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>8737</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>562</v>
+      </c>
+      <c r="D21" t="n">
+        <v>111500</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>9274</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>810</v>
+      </c>
+      <c r="D22" t="n">
+        <v>394600</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
